--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="10080" tabRatio="500"/>
+    <workbookView xWindow="135" yWindow="105" windowWidth="20610" windowHeight="10080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="212">
   <si>
     <t>type</t>
   </si>
@@ -465,18 +465,12 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Pregnancy Outcome</t>
-  </si>
-  <si>
     <t>pregnancy_outcome</t>
   </si>
   <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Traditional Birth Attendant's Home</t>
   </si>
   <si>
@@ -490,15 +484,190 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>ExtId da Mãe</t>
+  </si>
+  <si>
+    <t>ExtId do Pai</t>
+  </si>
+  <si>
+    <t>Id da visita</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Data do resultado da gravidez</t>
+  </si>
+  <si>
+    <t>Data parcial</t>
+  </si>
+  <si>
+    <t>Nascidos Vivos</t>
+  </si>
+  <si>
+    <t>Tipo de resultado da gravidez</t>
+  </si>
+  <si>
+    <t>ExtId da criança</t>
+  </si>
+  <si>
+    <t>ExtId do Agregado</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Nome do meio</t>
+  </si>
+  <si>
+    <t>PermId</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Qual é a posição ordinal desta criança?</t>
+  </si>
+  <si>
+    <t>hint::Portuguese</t>
+  </si>
+  <si>
+    <t>Primeira criança, segunda, terceira...etc Criança</t>
+  </si>
+  <si>
+    <t>Relação com o chefe do agregado</t>
+  </si>
+  <si>
+    <t>Onde o parto ocorreu?</t>
+  </si>
+  <si>
+    <t>Escreva o nome do local onde ocorreu o parto?</t>
+  </si>
+  <si>
+    <t>De todas crianças que nasceram, quantas ainda estão vivas?</t>
+  </si>
+  <si>
+    <t>Chegou a ir há uma clinica de antenatal durante a gravidez?</t>
+  </si>
+  <si>
+    <t>Nascido Vivo</t>
+  </si>
+  <si>
+    <t>Natimorto</t>
+  </si>
+  <si>
+    <t>Aborto Espontâneo</t>
+  </si>
+  <si>
+    <t>Aborto</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Exata</t>
+  </si>
+  <si>
+    <t>Aproximada</t>
+  </si>
+  <si>
+    <t>Filho/Filha</t>
+  </si>
+  <si>
+    <t>Irmão/Irmã</t>
+  </si>
+  <si>
+    <t>Neto/a</t>
+  </si>
+  <si>
+    <t>Sem relação</t>
+  </si>
+  <si>
+    <t>Outro parente</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Em casa</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Em casa da parteira tradicional</t>
+  </si>
+  <si>
+    <t>Centro de saúde ou Clinica</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>motherPermId</t>
+  </si>
+  <si>
+    <t>Perm ID da mãe</t>
+  </si>
+  <si>
+    <t>concat("ResGravidez_",${motherPermId},"_", format-date(today(), "%Y%n%e"))</t>
+  </si>
+  <si>
+    <t>Resultado de gravidez</t>
+  </si>
+  <si>
+    <t>childPermId</t>
+  </si>
+  <si>
+    <t>PermId da criança</t>
+  </si>
+  <si>
+    <t>selected(${outcomeType}, 'LBR') and FALSE</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>${lastName}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,423 +784,424 @@
   </borders>
   <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1717,43 +1887,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="30.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25" style="5" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="5"/>
-    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
-    <col min="13" max="17" width="10.875" style="5"/>
-    <col min="18" max="18" width="12" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="5"/>
+    <col min="7" max="8" width="21.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="37.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="25" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.875" style="5"/>
+    <col min="14" max="14" width="19.125" style="5" customWidth="1"/>
+    <col min="15" max="19" width="10.875" style="5"/>
+    <col min="20" max="20" width="12" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1768,40 +1939,46 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1820,8 +1997,10 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +2019,10 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1860,496 +2041,645 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="L9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="L10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="L12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="L14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="I15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="L15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>136</v>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="I17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="L17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>136</v>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="J18" s="2"/>
+      <c r="L18" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="I19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="L19" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="J20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="L20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="28.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>136</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="L21" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="L22" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="24.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="I23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="L23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="L26" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="24.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>156</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J28" s="3"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="L27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24">
+      <c r="A28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="12:12">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="12:12">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="3"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J67" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="L69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2358,37 +2688,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="13"/>
+    <col min="3" max="3" width="36.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
@@ -2396,13 +2730,16 @@
         <v>62</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
@@ -2410,13 +2747,16 @@
         <v>63</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
@@ -2424,13 +2764,16 @@
         <v>64</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
@@ -2438,13 +2781,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>34</v>
       </c>
@@ -2452,13 +2798,16 @@
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
@@ -2466,13 +2815,16 @@
         <v>115</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>27</v>
       </c>
@@ -2480,13 +2832,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -2494,13 +2849,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>35</v>
       </c>
@@ -2508,13 +2866,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -2522,13 +2883,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
@@ -2536,13 +2900,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
@@ -2550,13 +2917,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
@@ -2564,13 +2934,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
@@ -2578,13 +2951,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
@@ -2592,13 +2968,16 @@
         <v>79</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -2606,13 +2985,16 @@
         <v>81</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -2620,27 +3002,33 @@
         <v>85</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
@@ -2648,13 +3036,16 @@
         <v>82</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="24" t="s">
         <v>90</v>
       </c>
@@ -2662,13 +3053,16 @@
         <v>145</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
         <v>90</v>
       </c>
@@ -2676,202 +3070,237 @@
         <v>146</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1">
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="14"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="14"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="14"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="14"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="14"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="14"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="14"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="14"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="14"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="14"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="14"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="14"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="14"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="14"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="14"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="14"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="14"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="14"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="14"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="14"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="14"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="14"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="14"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2880,21 +3309,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2902,18 +3332,24 @@
         <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="268">
   <si>
     <t>type</t>
   </si>
@@ -138,9 +138,6 @@
     <t>totalNumberChildrenStillLiving</t>
   </si>
   <si>
-    <t>attendedANC</t>
-  </si>
-  <si>
     <t>recordedDate</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Kwa watoto wote uliyewai kuzaa, walio bado hai ni wangapi?</t>
   </si>
   <si>
-    <t>Ulipokuwa mjamzito uliwahi kupata huduma za akina mama wajawazito kutoka kliniki?</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
     <t>Mother Id</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>Of all the children you have had, how many are still living?</t>
   </si>
   <si>
-    <t>Did you attend ANC clinics during your pregnancy?</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -489,81 +477,21 @@
     <t>label::Portuguese</t>
   </si>
   <si>
-    <t>ExtId da Mãe</t>
-  </si>
-  <si>
-    <t>ExtId do Pai</t>
-  </si>
-  <si>
-    <t>Id da visita</t>
-  </si>
-  <si>
-    <t>Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>Resultados</t>
-  </si>
-  <si>
-    <t>Data do resultado da gravidez</t>
-  </si>
-  <si>
-    <t>Data parcial</t>
-  </si>
-  <si>
     <t>Nascidos Vivos</t>
   </si>
   <si>
-    <t>Tipo de resultado da gravidez</t>
-  </si>
-  <si>
-    <t>ExtId da criança</t>
-  </si>
-  <si>
-    <t>ExtId do Agregado</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Nome do meio</t>
   </si>
   <si>
-    <t>PermId</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Qual é a posição ordinal desta criança?</t>
-  </si>
-  <si>
     <t>hint::Portuguese</t>
   </si>
   <si>
     <t>Primeira criança, segunda, terceira...etc Criança</t>
   </si>
   <si>
-    <t>Relação com o chefe do agregado</t>
-  </si>
-  <si>
-    <t>Onde o parto ocorreu?</t>
-  </si>
-  <si>
-    <t>Escreva o nome do local onde ocorreu o parto?</t>
-  </si>
-  <si>
-    <t>De todas crianças que nasceram, quantas ainda estão vivas?</t>
-  </si>
-  <si>
-    <t>Chegou a ir há uma clinica de antenatal durante a gravidez?</t>
-  </si>
-  <si>
     <t>Nascido Vivo</t>
   </si>
   <si>
-    <t>Natimorto</t>
-  </si>
-  <si>
     <t>Aborto Espontâneo</t>
   </si>
   <si>
@@ -630,9 +558,6 @@
     <t>motherPermId</t>
   </si>
   <si>
-    <t>Perm ID da mãe</t>
-  </si>
-  <si>
     <t>concat("ResGravidez_",${motherPermId},"_", format-date(today(), "%Y%n%e"))</t>
   </si>
   <si>
@@ -652,6 +577,249 @@
   </si>
   <si>
     <t>${lastName}</t>
+  </si>
+  <si>
+    <t>motherName</t>
+  </si>
+  <si>
+    <t>Nome da mãe</t>
+  </si>
+  <si>
+    <t>10. Recebeu alguma rede mosquiteira nas consultas pré-natal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. A quantas consultas pré-natais atendeu? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Teve Tratamento Intermitente Presuntivo de Malária (TIP) com fansidar? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Recebeu alguma vacina antitetânica (VAT) durante esta gravidez? </t>
+  </si>
+  <si>
+    <t>14. Indica o número de vezes:</t>
+  </si>
+  <si>
+    <t>8. Número total de gravidezes que a mãe teve na vida incluindo esta última?</t>
+  </si>
+  <si>
+    <t>9. Total de nados vivos que a mãe teve na vida incluindo esta criança?</t>
+  </si>
+  <si>
+    <t>nrPregnancies</t>
+  </si>
+  <si>
+    <t>sim_nao_nsabe</t>
+  </si>
+  <si>
+    <t>select_one sim_nao_nsabe</t>
+  </si>
+  <si>
+    <t>nrLivebirths</t>
+  </si>
+  <si>
+    <t>mosquitoNet</t>
+  </si>
+  <si>
+    <t>prenatalVisits</t>
+  </si>
+  <si>
+    <t>anteTetanoVac</t>
+  </si>
+  <si>
+    <t>hasTIP</t>
+  </si>
+  <si>
+    <t>nrAnteTenanoVac</t>
+  </si>
+  <si>
+    <t>${anteTetanoVac} = 1</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>O valor deve ser maior que zero</t>
+  </si>
+  <si>
+    <t>. &gt;= 0</t>
+  </si>
+  <si>
+    <t>O valor deve ser maior ou igual a zero</t>
+  </si>
+  <si>
+    <t>A caminho do hospital</t>
+  </si>
+  <si>
+    <t>ONTHEWAY_TOHOSPITAL</t>
+  </si>
+  <si>
+    <t>29. Comprimento</t>
+  </si>
+  <si>
+    <t>30. Tipo de parto:</t>
+  </si>
+  <si>
+    <t>32. Perímetro Craneano</t>
+  </si>
+  <si>
+    <t>33. Peso ao nascer</t>
+  </si>
+  <si>
+    <t>weightAtBirth</t>
+  </si>
+  <si>
+    <t>headPerimeter</t>
+  </si>
+  <si>
+    <t>birthType</t>
+  </si>
+  <si>
+    <t>select_one birthtype</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Se não sabe escreva 8888</t>
+  </si>
+  <si>
+    <t>Se não sabe escreva 8890</t>
+  </si>
+  <si>
+    <t>Se não sabe escreva 8891</t>
+  </si>
+  <si>
+    <t>birthtype</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Cesariana</t>
+  </si>
+  <si>
+    <t>Ventosa</t>
+  </si>
+  <si>
+    <t>Pélvico</t>
+  </si>
+  <si>
+    <t>1. Tipo de resultado da gravidez</t>
+  </si>
+  <si>
+    <t>2. ExtId da criança</t>
+  </si>
+  <si>
+    <t>3. ExtId do Agregado</t>
+  </si>
+  <si>
+    <t>4. PermId da criança</t>
+  </si>
+  <si>
+    <t>5. Nome</t>
+  </si>
+  <si>
+    <t>6. Sexo</t>
+  </si>
+  <si>
+    <t>7. Relação com o chefe do agregado</t>
+  </si>
+  <si>
+    <t>8. Qual é a posição ordinal desta criança?</t>
+  </si>
+  <si>
+    <t>9. Comprimento</t>
+  </si>
+  <si>
+    <t>10. Tipo de parto:</t>
+  </si>
+  <si>
+    <t>11. Perímetro Craneano</t>
+  </si>
+  <si>
+    <t>12. Peso ao nascer</t>
+  </si>
+  <si>
+    <t>1. ExtId da Mãe</t>
+  </si>
+  <si>
+    <t>2. ExtId do Pai</t>
+  </si>
+  <si>
+    <t>3. Perm ID da mãe</t>
+  </si>
+  <si>
+    <t>4. Nome da mãe</t>
+  </si>
+  <si>
+    <t>5. Id da visita</t>
+  </si>
+  <si>
+    <t>6. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>7. Resultados</t>
+  </si>
+  <si>
+    <t>8. Data do resultado da gravidez</t>
+  </si>
+  <si>
+    <t>9. Data parcial</t>
+  </si>
+  <si>
+    <t>10. Número total de gravidezes que a mãe teve na vida incluindo esta última?</t>
+  </si>
+  <si>
+    <t>11. Total de nados vivos que a mãe teve na vida incluindo esta criança?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. A quantas consultas pré-natais atendeu? </t>
+  </si>
+  <si>
+    <t>13. Recebeu alguma rede mosquiteira nas consultas pré-natal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Teve Tratamento Intermitente Presuntivo de Malária (TIP) com fansidar? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Recebeu alguma vacina antitetânica (VAT) durante esta gravidez? </t>
+  </si>
+  <si>
+    <t>15.1. Indica o número de vezes:</t>
+  </si>
+  <si>
+    <t>16. Onde o parto ocorreu?</t>
+  </si>
+  <si>
+    <t>17. Escreva o nome do local onde ocorreu o parto?</t>
+  </si>
+  <si>
+    <t>18. De todas crianças que nasceram, quantas ainda estão vivas?</t>
+  </si>
+  <si>
+    <t>19. O parto foi atendido por um profissional de saúde?</t>
+  </si>
+  <si>
+    <t>20. Idade Gestacional</t>
+  </si>
+  <si>
+    <t>gestationalAge</t>
+  </si>
+  <si>
+    <t>Coloque 88 se não sabe</t>
+  </si>
+  <si>
+    <t>hasProfessionalAssistance</t>
+  </si>
+  <si>
+    <t>Nado morto</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>processed by dbsync</t>
   </si>
 </sst>
 </file>
@@ -759,7 +927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +937,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1309,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1192,16 +1366,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1888,20 +2065,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="30.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.125" style="5" customWidth="1"/>
@@ -1924,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1939,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>7</v>
@@ -1975,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2052,13 +2229,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L5" s="4" t="b">
         <v>1</v>
@@ -2075,13 +2252,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L6" s="4" t="b">
         <v>1</v>
@@ -2095,10 +2272,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="L7" s="4" t="b">
         <v>1</v>
@@ -2107,21 +2284,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="17.25" customHeight="1">
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="L8" s="4" t="b">
         <v>1</v>
@@ -2130,44 +2307,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="17.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L10" s="4" t="b">
         <v>1</v>
@@ -2178,508 +2355,873 @@
     </row>
     <row r="11" spans="1:20" ht="13.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="L11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="26" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="26" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="26" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="26" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="26" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="26" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A19" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="23" t="s">
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="T21" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="9" t="s">
+      <c r="C22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="L16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="L17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="L18" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="L19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="L20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="L21" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="L22" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>175</v>
+      <c r="C23" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J23" s="2"/>
       <c r="L23" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="O23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="I24" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
+      <c r="L24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="I25" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="L25" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="O25" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>177</v>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:20">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="L27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="L28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="L29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="L30" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="L38" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="24">
-      <c r="A28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="O29" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="L30" s="3"/>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="12:12">
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="12:12">
-      <c r="L42" s="3"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="L67" s="3"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="L69" s="3"/>
+      <c r="C39" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O43" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2689,16 +3231,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27" style="13" customWidth="1"/>
     <col min="3" max="3" width="36.25" style="13" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="13" customWidth="1"/>
@@ -2712,8 +3254,8 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>156</v>
+      <c r="C1" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>18</v>
@@ -2727,16 +3269,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2744,16 +3286,16 @@
         <v>28</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2761,16 +3303,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2778,16 +3320,16 @@
         <v>28</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2795,16 +3337,16 @@
         <v>34</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2812,16 +3354,16 @@
         <v>34</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2832,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2849,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
@@ -2866,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
@@ -2883,13 +3425,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
@@ -2900,13 +3442,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
@@ -2917,13 +3459,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
@@ -2934,13 +3476,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
@@ -2951,13 +3493,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2965,16 +3507,16 @@
         <v>37</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2982,16 +3524,16 @@
         <v>37</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2999,16 +3541,16 @@
         <v>37</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3016,123 +3558,200 @@
         <v>37</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="22"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="16">
+        <v>88</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A28" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="16">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1">
+      <c r="A30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="16">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14"/>
@@ -3301,6 +3920,13 @@
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3326,30 +3952,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12975" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1147,10 +1147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1224,13 +1224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1248,17 +1241,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1270,8 +1255,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,44 +1302,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,25 +1325,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1423,43 +1423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,13 +1483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,13 +1507,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,79 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,6 +1725,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1760,15 +1769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1786,142 +1786,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2450,11 +2450,11 @@
   <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88" defaultRowHeight="12"/>
@@ -3972,8 +3972,8 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88" defaultRowHeight="13.5" outlineLevelCol="4"/>
